--- a/yandex-output-tops.xlsx
+++ b/yandex-output-tops.xlsx
@@ -19,13 +19,13 @@
     <t>Type of TOP</t>
   </si>
   <si>
-    <t>2019-10-19</t>
-  </si>
-  <si>
-    <t>2019-12-12</t>
-  </si>
-  <si>
-    <t>2020-01-11</t>
+    <t>2019-12-18</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>2020-01-17</t>
   </si>
   <si>
     <t>1</t>
@@ -429,13 +429,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3.356</v>
+        <v>0.463</v>
       </c>
       <c r="D2">
-        <v>4.698</v>
+        <v>0.463</v>
       </c>
       <c r="E2">
-        <v>2.685</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,13 +446,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>12.081</v>
+        <v>11.574</v>
       </c>
       <c r="D3">
-        <v>15.436</v>
+        <v>13.889</v>
       </c>
       <c r="E3">
-        <v>15.436</v>
+        <v>18.519</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,13 +463,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>22.819</v>
+        <v>26.389</v>
       </c>
       <c r="D4">
-        <v>34.899</v>
+        <v>26.389</v>
       </c>
       <c r="E4">
-        <v>36.913</v>
+        <v>35.648</v>
       </c>
     </row>
   </sheetData>
